--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1315.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1315.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.006192996700034</v>
+        <v>1.032280325889587</v>
       </c>
       <c r="B1">
-        <v>2.373026133275388</v>
+        <v>1.917413949966431</v>
       </c>
       <c r="C1">
-        <v>5.257658910849831</v>
+        <v>7.964878082275391</v>
       </c>
       <c r="D1">
-        <v>2.364443989385161</v>
+        <v>1.999763369560242</v>
       </c>
       <c r="E1">
-        <v>1.267279201431931</v>
+        <v>0.6303097605705261</v>
       </c>
     </row>
   </sheetData>
